--- a/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
@@ -490,42 +490,42 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>41873</v>
+        <v>11508</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>95.09999999999999</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.120.1.9</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>654</v>
+        <v>3622</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.120.1.9</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9702</v>
+        <v>219</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>52229</v>
+        <v>15349</v>
       </c>
     </row>
     <row r="7"/>
@@ -579,96 +579,86 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>18721</v>
+        <v>96526</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-23</t>
-        </is>
+      <c r="E14" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>69578</v>
+        <v>328411</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+      <c r="E15" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>319198</v>
+        <v>143808</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
-        </is>
+      <c r="E16" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>143214</v>
+        <v>287148</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
+      <c r="E17" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>287148</v>
+        <v>69578</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
-        </is>
+      <c r="E18" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -684,58 +674,52 @@
       <c r="D19" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
+      <c r="E19" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>96526</v>
+        <v>67111</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>14239</v>
+        <v>13016</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
-        </is>
+      <c r="E21" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>254702</v>
+        <v>18721</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -743,18 +727,18 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>66339</v>
+        <v>66577</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -762,18 +746,18 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>63516</v>
+        <v>14239</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -781,18 +765,18 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>15730</v>
+        <v>265400</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -800,7 +784,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
@@ -819,18 +803,18 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>88435</v>
+        <v>15730</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
@@ -838,26 +822,26 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>13016</v>
+        <v>88435</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
@@ -887,7 +871,7 @@
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>44271</v>
+        <v>46270</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11508</v>
+        <v>10950</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3622</v>
+        <v>3759</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>98.59999999999999</v>
@@ -538,7 +538,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15349</v>
+        <v>14931</v>
       </c>
     </row>
     <row r="7"/>
@@ -579,86 +579,96 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>96526</v>
+        <v>18721</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v/>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>328411</v>
+        <v>69578</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v/>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>143808</v>
+        <v>329845</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v/>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>287148</v>
+        <v>143808</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>69578</v>
+        <v>287148</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E18" s="4" t="n">
-        <v/>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -674,52 +684,58 @@
       <c r="D19" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <v/>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>67111</v>
+        <v>96526</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>13016</v>
+        <v>14239</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v/>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>18721</v>
+        <v>265400</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -727,18 +743,18 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>66577</v>
+        <v>67111</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -746,18 +762,18 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>14239</v>
+        <v>66577</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -765,18 +781,18 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>265400</v>
+        <v>15734</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -784,7 +800,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
@@ -803,18 +819,18 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>15730</v>
+        <v>88435</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
@@ -822,26 +838,26 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>88435</v>
+        <v>13016</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>

--- a/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
@@ -490,7 +490,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10950</v>
+        <v>10982</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>96.3</v>
@@ -506,7 +506,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3759</v>
+        <v>3846</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>98.40000000000001</v>
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14931</v>
+        <v>15028</v>
       </c>
     </row>
     <row r="7"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>329845</v>
+        <v>331283</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
@@ -490,7 +490,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10982</v>
+        <v>10991</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>96.3</v>
@@ -506,7 +506,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3846</v>
+        <v>3849</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>98.40000000000001</v>
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15028</v>
+        <v>15036</v>
       </c>
     </row>
     <row r="7"/>

--- a/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
@@ -490,42 +490,42 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10991</v>
+        <v>9826</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.120.1.9</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3849</v>
+        <v>204</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15036</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="7"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>331283</v>
+        <v>338880</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>143808</v>
+        <v>143869</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>10661</v>
+        <v>11140</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>14239</v>
+        <v>14487</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>66577</v>
+        <v>68450</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>88435</v>
+        <v>90508</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>46270</v>
+        <v>52515</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="84" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="65" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,10 +487,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9826</v>
+        <v>9992</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -506,404 +503,649 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>10055</v>
-      </c>
-    </row>
+      <c r="B5" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>10177</v>
+      </c>
+    </row>
+    <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17609</v>
+      </c>
+      <c r="C13" t="n">
+        <v>69</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>57</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17678</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>22.180.0.4</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>18721</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-23</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1254472</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1946</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1259751</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>69578</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>448248</v>
+      </c>
+      <c r="C15" t="n">
+        <v>738</v>
+      </c>
+      <c r="D15" t="n">
+        <v>931</v>
+      </c>
+      <c r="E15" t="n">
+        <v>688</v>
+      </c>
+      <c r="F15" t="n">
+        <v>449917</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>338880</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>204134</v>
+      </c>
+      <c r="C16" t="n">
+        <v>775</v>
+      </c>
+      <c r="D16" t="n">
+        <v>52</v>
+      </c>
+      <c r="E16" t="n">
+        <v>319</v>
+      </c>
+      <c r="F16" t="n">
+        <v>204961</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>143869</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>28296</v>
+      </c>
+      <c r="C17" t="n">
+        <v>111</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>61</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28407</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>287148</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1734330</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2979</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2614</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2960</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1739923</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>22.230.0.8</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>11140</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>134169</v>
+      </c>
+      <c r="C19" t="n">
+        <v>189</v>
+      </c>
+      <c r="D19" t="n">
+        <v>263</v>
+      </c>
+      <c r="E19" t="n">
+        <v>192</v>
+      </c>
+      <c r="F19" t="n">
+        <v>134621</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>22.110.1.1</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>96526</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>210370</v>
+      </c>
+      <c r="C20" t="n">
+        <v>324</v>
+      </c>
+      <c r="D20" t="n">
+        <v>313</v>
+      </c>
+      <c r="E20" t="n">
+        <v>558</v>
+      </c>
+      <c r="F20" t="n">
+        <v>211007</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>23.70.2.3</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>14487</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>140350</v>
+      </c>
+      <c r="C21" t="n">
+        <v>270</v>
+      </c>
+      <c r="D21" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>307</v>
+      </c>
+      <c r="F21" t="n">
+        <v>140695</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>265400</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>230530</v>
+      </c>
+      <c r="C22" t="n">
+        <v>421</v>
+      </c>
+      <c r="D22" t="n">
+        <v>37</v>
+      </c>
+      <c r="E22" t="n">
+        <v>399</v>
+      </c>
+      <c r="F22" t="n">
+        <v>230988</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>67111</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>265066</v>
+      </c>
+      <c r="C23" t="n">
+        <v>203</v>
+      </c>
+      <c r="D23" t="n">
+        <v>131</v>
+      </c>
+      <c r="E23" t="n">
+        <v>310</v>
+      </c>
+      <c r="F23" t="n">
+        <v>265400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>22.100.1.1</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="4" t="n">
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14487</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>57</v>
+      </c>
+      <c r="F24" t="n">
+        <v>14487</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>22.150.0.3</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>100</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2020-10-19</t>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>15734</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11140</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>59</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11140</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>22.150.3.1</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>26241</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" s="4" t="n">
+          <t>Realtek RTL8811AU Wireless LAN 802.11ac USB 2.0 Network Adapter - 1030.38.712.2019</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>94933</v>
+      </c>
+      <c r="C26" t="n">
+        <v>37</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>90</v>
+      </c>
+      <c r="F26" t="n">
+        <v>94980</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>realtek rtl8811au wireless lan 802.11ac usb 2.0 network adapter</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1030.38.712.2019</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>100</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>90508</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>13016</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Realtek RTL8811AU Wireless LAN 802.11ac USB 2.0 Network Adapter - 1030.38.712.2019</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>94980</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>2019-07-17</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>52515</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/TempleUniversityHealth_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,177 +484,153 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9992</v>
+        <v>8272</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>96.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.90.0.2</t>
+          <t>Realtek RTL8811AU Wireless LAN 802.11ac USB 2.0 Network Adapter - 1030.38.712.2019</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>185</v>
+        <v>396</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.120.1.9</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2134</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>10177</v>
-      </c>
-    </row>
-    <row r="6"/>
+      <c r="B6" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10802</v>
+      </c>
+    </row>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>adapter-driver</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>good sum</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>critical sum</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>warning sum</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>client count</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>total sum</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>adapter</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>driver</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>good roaming calculation (%)</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17609</v>
-      </c>
-      <c r="C13" t="n">
-        <v>69</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>57</v>
-      </c>
-      <c r="F13" t="n">
-        <v>17678</v>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>adapter</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>22.180.0.4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>99.59999999999999</v>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1254472</v>
+        <v>591074</v>
       </c>
       <c r="C14" t="n">
-        <v>4270</v>
+        <v>1100</v>
       </c>
       <c r="D14" t="n">
-        <v>1009</v>
+        <v>1527</v>
       </c>
       <c r="E14" t="n">
-        <v>1946</v>
+        <v>1267</v>
       </c>
       <c r="F14" t="n">
-        <v>1259751</v>
+        <v>593701</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>23.30.0.6</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -662,39 +638,39 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>448248</v>
+        <v>84751</v>
       </c>
       <c r="C15" t="n">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="D15" t="n">
-        <v>931</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>688</v>
+        <v>105</v>
       </c>
       <c r="F15" t="n">
-        <v>449917</v>
+        <v>85067</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -702,39 +678,39 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204134</v>
+        <v>4430490</v>
       </c>
       <c r="C16" t="n">
-        <v>775</v>
+        <v>12730</v>
       </c>
       <c r="D16" t="n">
-        <v>52</v>
+        <v>5504</v>
       </c>
       <c r="E16" t="n">
-        <v>319</v>
+        <v>5946</v>
       </c>
       <c r="F16" t="n">
-        <v>204961</v>
+        <v>4448724</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -742,39 +718,39 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28296</v>
+        <v>415263</v>
       </c>
       <c r="C17" t="n">
-        <v>111</v>
+        <v>488</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1136</v>
       </c>
       <c r="E17" t="n">
-        <v>61</v>
+        <v>485</v>
       </c>
       <c r="F17" t="n">
-        <v>28407</v>
+        <v>416887</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -782,74 +758,74 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1734330</v>
+        <v>15942</v>
       </c>
       <c r="C18" t="n">
-        <v>2979</v>
+        <v>57</v>
       </c>
       <c r="D18" t="n">
-        <v>2614</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>2960</v>
+        <v>69</v>
       </c>
       <c r="F18" t="n">
-        <v>1739923</v>
+        <v>16002</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>22.230.0.8</t>
+          <t>22.80.1.1</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>134169</v>
+        <v>145537</v>
       </c>
       <c r="C19" t="n">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="D19" t="n">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E19" t="n">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="F19" t="n">
-        <v>134621</v>
+        <v>146065</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -858,7 +834,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -869,240 +845,236 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.20.1.1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>210370</v>
+        <v>92845</v>
       </c>
       <c r="C20" t="n">
-        <v>324</v>
+        <v>419</v>
       </c>
       <c r="D20" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>558</v>
+        <v>114</v>
       </c>
       <c r="F20" t="n">
-        <v>211007</v>
+        <v>93264</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23.70.2.3</t>
+          <t>21.20.1.1</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>140350</v>
+        <v>32600</v>
       </c>
       <c r="C21" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>140695</v>
+        <v>32693</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.0.1.5</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
+        <v>99.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>230530</v>
+        <v>1336938</v>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2486</v>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>1863</v>
       </c>
       <c r="E22" t="n">
-        <v>399</v>
+        <v>1464</v>
       </c>
       <c r="F22" t="n">
-        <v>230988</v>
+        <v>1341287</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>21.10.2.2</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+        <v>99.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>265066</v>
+        <v>77093</v>
       </c>
       <c r="C23" t="n">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="D23" t="n">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="F23" t="n">
-        <v>265400</v>
+        <v>77287</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22.100.1.1</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14487</v>
+        <v>19655</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F24" t="n">
-        <v>14487</v>
+        <v>19689</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>22.150.0.3</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11140</v>
+        <v>57999</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E25" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F25" t="n">
-        <v>11140</v>
+        <v>58133</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>22.150.3.1</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
@@ -1113,19 +1085,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>94933</v>
+        <v>104230</v>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F26" t="n">
-        <v>94980</v>
+        <v>104446</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1138,11 +1110,611 @@
         </is>
       </c>
       <c r="I26" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2019-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>67832</v>
+      </c>
+      <c r="C27" t="n">
+        <v>121</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>115</v>
+      </c>
+      <c r="F27" t="n">
+        <v>67954</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>22.140.0.3</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>23413</v>
+      </c>
+      <c r="C28" t="n">
+        <v>38</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11</v>
+      </c>
+      <c r="E28" t="n">
+        <v>23</v>
+      </c>
+      <c r="F28" t="n">
+        <v>23462</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>23.70.2.3</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>301043</v>
+      </c>
+      <c r="C29" t="n">
+        <v>388</v>
+      </c>
+      <c r="D29" t="n">
+        <v>146</v>
+      </c>
+      <c r="E29" t="n">
+        <v>702</v>
+      </c>
+      <c r="F29" t="n">
+        <v>301577</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>69513</v>
+      </c>
+      <c r="C30" t="n">
+        <v>64</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>85</v>
+      </c>
+      <c r="F30" t="n">
+        <v>69578</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>22.250.10.1</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16252</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>43</v>
+      </c>
+      <c r="F31" t="n">
+        <v>16274</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>305670</v>
+      </c>
+      <c r="C32" t="n">
+        <v>304</v>
+      </c>
+      <c r="D32" t="n">
+        <v>107</v>
+      </c>
+      <c r="E32" t="n">
+        <v>321</v>
+      </c>
+      <c r="F32" t="n">
+        <v>306081</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>153442</v>
+      </c>
+      <c r="C33" t="n">
+        <v>67</v>
+      </c>
+      <c r="D33" t="n">
+        <v>64</v>
+      </c>
+      <c r="E33" t="n">
+        <v>195</v>
+      </c>
+      <c r="F33" t="n">
+        <v>153573</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>22.200.0.6</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>348742</v>
+      </c>
+      <c r="C34" t="n">
+        <v>176</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25</v>
+      </c>
+      <c r="E34" t="n">
+        <v>467</v>
+      </c>
+      <c r="F34" t="n">
+        <v>348943</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>22.230.0.8</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>90450</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25</v>
+      </c>
+      <c r="E35" t="n">
+        <v>161</v>
+      </c>
+      <c r="F35" t="n">
+        <v>90508</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>21.40.2.2</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>13010</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13016</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>21.30.4.1</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>100</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2019-07-17</t>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2019-07-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>62512</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>48</v>
+      </c>
+      <c r="F37" t="n">
+        <v>62516</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>21.10.1.2</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>100</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>26239</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>44</v>
+      </c>
+      <c r="F38" t="n">
+        <v>26241</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>68439</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97</v>
+      </c>
+      <c r="F39" t="n">
+        <v>68450</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>22.10.0.7</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>100</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>104290</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19</v>
+      </c>
+      <c r="D40" t="n">
+        <v>32</v>
+      </c>
+      <c r="E40" t="n">
+        <v>110</v>
+      </c>
+      <c r="F40" t="n">
+        <v>104341</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>22.160.0.4</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>67098</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>145</v>
+      </c>
+      <c r="F41" t="n">
+        <v>67111</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>100</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
